--- a/SOTA/wwwroot/Reports/FinishedReports/Tip1/Region/Краснодар/ИРО.xlsx
+++ b/SOTA/wwwroot/Reports/FinishedReports/Tip1/Region/Краснодар/ИРО.xlsx
@@ -203,7 +203,7 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
